--- a/29-30.xlsx
+++ b/29-30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Помещение</t>
   </si>
@@ -96,6 +96,51 @@
   </si>
   <si>
     <t>одна ко многим</t>
+  </si>
+  <si>
+    <t>Пользователь</t>
+  </si>
+  <si>
+    <t>Номер помещения</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>1- ко многим</t>
+  </si>
+  <si>
+    <t>1-ко многим</t>
+  </si>
+  <si>
+    <t>Группа пользователей</t>
+  </si>
+  <si>
+    <t>ID пользователя</t>
+  </si>
+  <si>
+    <t>Название группы</t>
+  </si>
+  <si>
+    <t>Varchar(20)</t>
+  </si>
+  <si>
+    <t>Переферийное устройство</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>varchar (20)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -159,6 +204,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -227,30 +285,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -322,13 +387,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -337,7 +402,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4640580" y="2506980"/>
+          <a:off x="4640580" y="2537460"/>
           <a:ext cx="2644140" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -386,6 +451,241 @@
         <a:xfrm flipH="1">
           <a:off x="8633460" y="2400300"/>
           <a:ext cx="2034540" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4838700" y="1028700"/>
+          <a:ext cx="2484120" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Прямая со стрелкой 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2834640" y="670560"/>
+          <a:ext cx="5318760" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>982980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2674620" y="624840"/>
+          <a:ext cx="2468880" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Прямая со стрелкой 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2461260" y="685800"/>
+          <a:ext cx="5966460" cy="1859280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1402080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Прямая со стрелкой 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2621280" y="2575560"/>
+          <a:ext cx="5951220" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -677,14 +977,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:M17"/>
+  <dimension ref="C2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -693,42 +994,92 @@
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="5" t="s">
+    <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="I4" s="4" t="s">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="I5" s="2" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I6" s="3" t="s">
+    <row r="6" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
@@ -736,59 +1087,71 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="10" t="s">
+    <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="9" t="s">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="3" t="s">
+    <row r="15" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I16" s="3" t="s">
+    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
